--- a/data/georgia_census/imereti/chiatura/average_wages.xlsx
+++ b/data/georgia_census/imereti/chiatura/average_wages.xlsx
@@ -1096,13 +1096,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18872A86-1EB8-4B71-9912-E33E1D3A5B76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1796166E-EECC-45BB-8AD6-95836AA203E0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3895F341-97D9-441C-9DAE-6BCAC2CAE264}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19B7678-50FD-4D71-AA4E-80A4BC611E5A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9C864E0-161E-4379-94AF-94D9C5C03B81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5381381E-35DD-417F-B92B-6BFD2F106975}"/>
 </file>